--- a/ai/data/raw/Project_MovementSystem_QDatas.xlsx
+++ b/ai/data/raw/Project_MovementSystem_QDatas.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="473">
   <si>
     <t>id</t>
   </si>
@@ -232,7 +232,7 @@
     <t>arcus_dentales_mcq_01</t>
   </si>
   <si>
-    <t>Diş kemerleri - Konumu</t>
+    <t>Diş Kemerleri - Konumu</t>
   </si>
   <si>
     <t>viscerocranium; yüz; diş kemerleri; os mandibula; os maxilla; çene; alt çene; üst çene; kafa</t>
@@ -250,7 +250,7 @@
     <t>os_vomer_tf_01</t>
   </si>
   <si>
-    <t>Os Vomer-T/F</t>
+    <t>Os Vomer - T/F</t>
   </si>
   <si>
     <t>viscerocranium; yüz; kafa; burun; sapan</t>
@@ -280,7 +280,7 @@
     <t>os_zygomaticum_tf_01</t>
   </si>
   <si>
-    <t>Os Zygomaticum-T/F</t>
+    <t>Os Zygomaticum - T/F</t>
   </si>
   <si>
     <t>viscerocranium; yüz; elmacık; zigomatik; kafa; çift</t>
@@ -295,7 +295,7 @@
     <t>os_nasale_mcq_01</t>
   </si>
   <si>
-    <t>Os Nasale-Konumu</t>
+    <t>Os Nasale - Konumu</t>
   </si>
   <si>
     <t>viscerocranium; yüz; burun; nazal; çift; kafa</t>
@@ -313,7 +313,7 @@
     <t>os_lacrimale_mcq_01</t>
   </si>
   <si>
-    <t>Os Lacrimale-Konumu ve Komşuluğu</t>
+    <t>Os Lacrimale - Konumu ve Komşuluğu</t>
   </si>
   <si>
     <t>viscerocranium; yüz; lakrimal; gözyaşı; kafa; küçük; ince; çift; orbita iç duvar</t>
@@ -331,7 +331,7 @@
     <t>os_palatinum_tf_01</t>
   </si>
   <si>
-    <t>Os Palatinum-T/F</t>
+    <t>Os Palatinum - T/F</t>
   </si>
   <si>
     <t>viscerocranium; yüz; palatin; kafa; çift; damak</t>
@@ -343,7 +343,7 @@
     <t>concha_nasalis_inferior_tf_01</t>
   </si>
   <si>
-    <t>Concha Nasalis Inferior-T/F</t>
+    <t>Concha Nasalis Inferior - T/F</t>
   </si>
   <si>
     <t>viscerocranium; yüz; alt; burun; kafa; çift; konka</t>
@@ -358,7 +358,7 @@
     <t>concha_nasalis_inferior_mcq_01</t>
   </si>
   <si>
-    <t>Concha Nasalis Inferior-Konumu</t>
+    <t>Concha Nasalis Inferior - Konumu</t>
   </si>
   <si>
     <t>Aşağıdakilerden hangisi Concha nasalis inferior ile ilgili doğru bir ifadedir?</t>
@@ -373,7 +373,7 @@
     <t>os_palatinum_mcq_01</t>
   </si>
   <si>
-    <t>Os Palatinum-Konumu</t>
+    <t>Os Palatinum - Konumu</t>
   </si>
   <si>
     <t>Aşağıdakilerden hangisi Os palatinum ile ilgili doğru bir ifadedir?</t>
@@ -388,17 +388,1065 @@
     <t>os_lacrimale_tf_01</t>
   </si>
   <si>
-    <t>Os Lacrimale-T/F</t>
+    <t>Os Lacrimale - T/F</t>
   </si>
   <si>
     <t>Os lacrimale, yüz kemiklerinin en küçüğü ve en incesidir.</t>
+  </si>
+  <si>
+    <t>columna_vertebralis_mcq_01</t>
+  </si>
+  <si>
+    <t>Lordoz Görülen Bölgeler</t>
+  </si>
+  <si>
+    <t>Trunk</t>
+  </si>
+  <si>
+    <t>columna vertebralis; omurga; eğrilik; lordoz; boyun; bel; arka</t>
+  </si>
+  <si>
+    <t>Lordoz omurganın hangi bölgelerinde görülür?</t>
+  </si>
+  <si>
+    <t>{"options":["Boyun ve Göğüs","Boyun ve Bel","Bel ve Sakrum","Göğüs ve Sakrum"]}</t>
+  </si>
+  <si>
+    <t>Ders kitabına göre lordoz yani omurganın arkaya doğru eğilmesi, boyun ve bel bölgesinde görülür.</t>
+  </si>
+  <si>
+    <t>Ders kitabı s.58</t>
+  </si>
+  <si>
+    <t>columna_vertebralis_mcq_02</t>
+  </si>
+  <si>
+    <t>Kifoz Görülen Bölgeler</t>
+  </si>
+  <si>
+    <t>columna vertebralis; omurga; eğrilik; kifoz; göğüs; sakrum; ön</t>
+  </si>
+  <si>
+    <t>Kifoz omurganın hangi bölgelerinde görülür?</t>
+  </si>
+  <si>
+    <t>{"options":["Göğüs ve Bel","Boyun ve Sakrum","Göğüs ve Sakrum","Bel ve Boyun"]}</t>
+  </si>
+  <si>
+    <t>Ders kitabına göre kifoz yani omurganın öne doğru eğilmesi, göğüs ve sakrum bölgesinde görülür.</t>
+  </si>
+  <si>
+    <t>columna_vertebralis_mcq_03</t>
+  </si>
+  <si>
+    <t>Omurganın Görevleri</t>
+  </si>
+  <si>
+    <t>columna vertebralis; omurga; görev; taşıma; hareket;  koruma; barındırma</t>
+  </si>
+  <si>
+    <t>Aşağıdakilerden hangisi omurganın görevlerinden biri değildir?</t>
+  </si>
+  <si>
+    <t>{"options":["Baş, boyun ve gövdenin ağırlığını taşır.","Başın ve gövdenin hareketlerini sağlar.","Omuriliği barındırır ve korur.","Kanda oksijen ve karbondioksit değişimini sağlayarak solunumu gerçekleştirir."]}</t>
+  </si>
+  <si>
+    <t>Ders kitabına göre omurga taşıma, hareket ve koruma işlerini yapar.</t>
+  </si>
+  <si>
+    <t>columna_vertebralis_matching_01</t>
+  </si>
+  <si>
+    <t>matching</t>
+  </si>
+  <si>
+    <t>Omurlar ve sembolleri</t>
+  </si>
+  <si>
+    <t>columna vertebralis; omurga; omur; vertebra; boyun; vertebrae cervicales; göğüs; vertebrae thoracicae; bel; vertebrae lumbales; sağrı; kuyruk sokumu; vertebrae sacrale; os sacrum; kuyruk; vertebrae coccygea; os coccyge; sembol</t>
+  </si>
+  <si>
+    <t>Aşağıdaki omur bölgelerini doğru semboller ile eşleştiriniz.</t>
+  </si>
+  <si>
+    <t>{"left":["Vertebrae cervicales", "Vertebrae lumbales", "Vertebrae sacrale", "Vertebrae thoracicae", "Vertebrae coccygea"], "right":["T1-T12", "L1-L5", "C1-C7", "Co1-Co4", "S1-S5"], "shuffle_right":true}</t>
+  </si>
+  <si>
+    <t>{"pairs":[[0,2], [1,1], [2,4], [3,0], [4,3]]}</t>
+  </si>
+  <si>
+    <t>Ders kitabı s.59</t>
+  </si>
+  <si>
+    <t>vertebra_mcq_01</t>
+  </si>
+  <si>
+    <t>Omurların Kemikleşmesi</t>
+  </si>
+  <si>
+    <t>columna vertebralis; omurga; omur; vertebra; kemik; sakrum; os sacrum; vertebrae sacrale; sağrı; koksiks; os coccyge; vertebrae coccygea; kuyruk sokumu</t>
+  </si>
+  <si>
+    <t>Yetişkinlerde kendi aralarında kaynaşıp birer kemiğe dönüşen omurlar hangileridir?</t>
+  </si>
+  <si>
+    <t>{"options":["Vertebrae cervicales ve Vertebrae coccygea","Vertebrae lumbales ve Vertebrae sacrale","Vertebrae sacrale ve Vertebrae coccygea","Vertebrae lumbales ve Vertebrae cervicales"]}</t>
+  </si>
+  <si>
+    <t>Ders kitabına göre yetişkinlerde sakrum (sağrı) ve koksiks (kuyruk sokumu) omurları kendi aralarında kaynaşıp birer kemiğe dönüşür.</t>
+  </si>
+  <si>
+    <t>vertebrae_cervicales_tf_01</t>
+  </si>
+  <si>
+    <t>Boyun omurları - T/F</t>
+  </si>
+  <si>
+    <t>columna vertebralis; omurga; vertebrae cervicales; omur; vertebra; boyun; atlas; axis</t>
+  </si>
+  <si>
+    <t>C1 omura atlas, C2 omura eksen (axis) adı verilir.</t>
+  </si>
+  <si>
+    <t>vertebrae_cervicales_tf_02</t>
+  </si>
+  <si>
+    <t>columna vertebralis; omurga; vertebrae cervicales; omur; vertebra; boyun; atlas; axis; hareket</t>
+  </si>
+  <si>
+    <t>C1 omurunun artkafa kemiği ve C2 omuru ile yaptığı eklemler kafanın hareketini sağlar.</t>
+  </si>
+  <si>
+    <t>vertebrae_cervicales_mcq_01</t>
+  </si>
+  <si>
+    <t>Boyun omurları sayısı</t>
+  </si>
+  <si>
+    <t>columna vertebralis; omurga; vertebrae cervicales; omur; vertebra; boyun; sayı</t>
+  </si>
+  <si>
+    <t>Boyun bölgesinde kaç adet omur bulunur?</t>
+  </si>
+  <si>
+    <t>{"options":["5","7","4","12"]}</t>
+  </si>
+  <si>
+    <t>Ders kitabına göre 7 adet boyun omuru vardır ve C1-C7 sembolü ile gösterilirler.</t>
+  </si>
+  <si>
+    <t>vertebrae_thoracicae_mcq_01</t>
+  </si>
+  <si>
+    <t>Göğüs omurları sayısı</t>
+  </si>
+  <si>
+    <t>columna vertebralis; omurga; vertebrae thoracicae; omur; vertebra; göğüs; sayı</t>
+  </si>
+  <si>
+    <t>Göğüs bölgesinde kaç adet omur bulunur?</t>
+  </si>
+  <si>
+    <t>{"options":["4","7","12","5"]}</t>
+  </si>
+  <si>
+    <t>Ders kitabına göre 12 adet göğüs omuru vardır ve T1-T12 sembolü ile gösterilirler.</t>
+  </si>
+  <si>
+    <t>vertebrae_lumbales_tf_01</t>
+  </si>
+  <si>
+    <t>Bel omurları - T/F</t>
+  </si>
+  <si>
+    <t>columna vertebralis; omurga; vertebrae lumbales; omur; vertebra; bel; büyük; sağlam</t>
+  </si>
+  <si>
+    <t>Gövdesi en büyük ve en sağlam omurlar lumbal bölgededir.</t>
+  </si>
+  <si>
+    <t>vertebrae_lumbales_mcq_01</t>
+  </si>
+  <si>
+    <t>Bel omurları sayısı</t>
+  </si>
+  <si>
+    <t>columna vertebralis; omurga; vertebrae lumbales; omur; vertebra; bel; sayı</t>
+  </si>
+  <si>
+    <t>Bel bölgesinde kaç adet omur bulunur?</t>
+  </si>
+  <si>
+    <t>{"options":["4","5","7","12"]}</t>
+  </si>
+  <si>
+    <t>Ders kitabına göre 5 adet boyun omuru vardır ve L1-L5 sembolü ile gösterilirler.</t>
+  </si>
+  <si>
+    <t>vertebrae_sacrale_mcq_01</t>
+  </si>
+  <si>
+    <t>Vücudun ağırlık merkezi - Konumu</t>
+  </si>
+  <si>
+    <t>columna vertebralis; omurga; vertebrae sacrale; os sacrum; omur; vertebra; kuyruk sokumu; sağrı; ağırlık; merkez; ağırlık merkezi</t>
+  </si>
+  <si>
+    <t>Vücudun ağırlık merkezi hangi bölgedeki omurların önüne denk gelir?</t>
+  </si>
+  <si>
+    <t>{"options":["Boyun omurları","Göğüs omurları","Bel omurları","Sağrı omurları"]}</t>
+  </si>
+  <si>
+    <t>Ders kitabına göre vücudun ağırlık merkezi S2’nin 2-2,5 cm önüne denk gelir.</t>
+  </si>
+  <si>
+    <t>vertebrae_sacrale_mcq_02</t>
+  </si>
+  <si>
+    <t>Sağrı omurları sayısı</t>
+  </si>
+  <si>
+    <t>columna vertebralis; omurga; vertebrae sacrale; os sacrum; omur; vertebra; kuyruk sokumu; sağrı; sayı</t>
+  </si>
+  <si>
+    <t>Sağrı bölgesinde kaç adet omur bulunur?</t>
+  </si>
+  <si>
+    <t>{"options":["4","12","7","5"]}</t>
+  </si>
+  <si>
+    <t>Ders kitabına göre 5 adet sağrı omuru vardır ve S1-S5 sembolü ile gösterilirler.</t>
+  </si>
+  <si>
+    <t>vertebrae_coccygea_mcq_01</t>
+  </si>
+  <si>
+    <t>Kuyruk omurları sayısı</t>
+  </si>
+  <si>
+    <t>columna vertebralis; omurga; vertebrae coccygea; os coccyge; omur; vertebra; kuyruk; sayı</t>
+  </si>
+  <si>
+    <t>Kuyruk bölgesinde kaç adet omur bulunur?</t>
+  </si>
+  <si>
+    <t>{"options":["12","7","4","5"]}</t>
+  </si>
+  <si>
+    <t>Ders kitabına göre 4 adet kuyruk omuru vardır ve Co1-Co4 sembolü ile gösterilirler.</t>
+  </si>
+  <si>
+    <t>os_sternum_mcq_01</t>
+  </si>
+  <si>
+    <t>Göğüs tahtası kemiği yapısı</t>
+  </si>
+  <si>
+    <t>thoracic cage; göğüs kafesi; os sternum; göğüs tahtası kemiği; manubrium sterni; sternum sapı; corpus sterni; sternum
+gövdesi; processus xiphoideus; hançersi çıkıntı</t>
+  </si>
+  <si>
+    <t>Göğüs tahtası kemiğini oluşturan 3 kısmın üstten alta doğru isimleri nelerdir?</t>
+  </si>
+  <si>
+    <t>{"options":["hançersi çıkıntı/sternum
+gövdesi/sternum sapı","sternum sapı/sternum
+gövdesi/hançersi çıkıntı","sternum
+gövdesi/hançersi çıkıntı/sternum sapı","sternum
+gövdesi/sternum sapı/hançersi çıkıntı"]}</t>
+  </si>
+  <si>
+    <t>Ders kitabına göre göğüs tahtası kemiğinin üstteki kısmına sternum sapı (manubrium sterni), ortadaki kısmına sternum gövdesi (corpus sterni) ve uç kısmına ise hançersi çıkıntı (processus xiphoideus) denir.</t>
+  </si>
+  <si>
+    <t>Ders kitabı s.60</t>
+  </si>
+  <si>
+    <t>os_sternum_tf_01</t>
+  </si>
+  <si>
+    <t>Göğüs tahtası kemiği - T/F</t>
+  </si>
+  <si>
+    <t>thoracic cage; göğüs kafesi; os sternum; göğüs tahtası kemiği; processus xiphoideus; hançersi çıkıntı; eklem</t>
+  </si>
+  <si>
+    <t>Hançersi çıkıntı, kaburgalarla eklem yapmaz.</t>
+  </si>
+  <si>
+    <t>ossa_costae_tf_01</t>
+  </si>
+  <si>
+    <t>Kaburgalar - T/F</t>
+  </si>
+  <si>
+    <t>thoracic cage; göğüs kafesi; ossa costae; kaburga; kosta; yalancı kaburga</t>
+  </si>
+  <si>
+    <t>Yalancı kaburgaların kıkırdakları önce kendi aralarında birleşip 7’nci kaburganın kıkırdağına katılır ve sternumla dolaylı eklem yapar.</t>
+  </si>
+  <si>
+    <t>Ders kitabına göre yalancı kaburgaların ilk 3 çiftinin kıkırdakları önce kendi aralarında birleşip 7’nci kaburganın kıkırdağına katılır ve sternumla dolaylı eklem yapar. Son 2 çift yalancı kaburga kasların içinde serbest olarak sonlanır.</t>
+  </si>
+  <si>
+    <t>os_clavicula_tf_01</t>
+  </si>
+  <si>
+    <t>Köprücük kemiği - T/F</t>
+  </si>
+  <si>
+    <t>Upper_Extremity</t>
+  </si>
+  <si>
+    <t>cingulum membri superioris; omuz; köprücük kemiği; köprü; kırılgan</t>
+  </si>
+  <si>
+    <t>Vücutta en sık kırılan kemik köprücük kemiğidir.</t>
+  </si>
+  <si>
+    <t>Ders kitabı s.61</t>
+  </si>
+  <si>
+    <t>os_clavicula_tf_02</t>
+  </si>
+  <si>
+    <t>cingulum membri superioris; omuz; köprücük kemiği; köprü; kemikleşme</t>
+  </si>
+  <si>
+    <t>Kemikleşmeye ilk başlayan kemik köprücük kemiğidir.</t>
+  </si>
+  <si>
+    <t>os_scapula_matching_01</t>
+  </si>
+  <si>
+    <t>Kürek kemiği bölgeleri isimleri</t>
+  </si>
+  <si>
+    <t>cingulum membri superioris; omuz; kürek kemiği; acromion; korakoid çıkıntı; processus coracoideus; glenoid çukur; cavitas glenoidalis</t>
+  </si>
+  <si>
+    <t>Kürek kemiğinin bölgelerini isimleriyle eşleştiriniz.</t>
+  </si>
+  <si>
+    <t>{"left":["Köprücük kemiği ile eklem yapan dış yana doğru uzanan çıkıntı", "Üst dış yanda öne doğru uzanan ve bazı kasların tutunduğu gagaya benzer çıkıntı", "Kol kemiğiyle eklem yapan üst dış kenarı"], "right":["cavitas glenoidalis", "acromion", "processus coracoideus"], "shuffle_right":true}</t>
+  </si>
+  <si>
+    <t>{"pairs":[[0,1], [1,2], [2,0]]}</t>
+  </si>
+  <si>
+    <t>os_humerus_tf_01</t>
+  </si>
+  <si>
+    <t>Kol kemiği - T/F</t>
+  </si>
+  <si>
+    <t>brachium; kol; kol kemiği; uzun</t>
+  </si>
+  <si>
+    <t>Os Humerus, üst ekstremitenin en uzun kemiğidir.</t>
+  </si>
+  <si>
+    <t>Ders kitabı s.62</t>
+  </si>
+  <si>
+    <t>os_humerus_matching_01</t>
+  </si>
+  <si>
+    <t>Kol kemiği bölgeleri isimleri</t>
+  </si>
+  <si>
+    <t>brachium; kol; kol kemiği; caput humeri; humerus başı; trochlea humeri; humerus makarası; capitulum humeri; humerus başçığı</t>
+  </si>
+  <si>
+    <t>Kol kemiğinin bölgelerini isimleriyle eşleştiriniz.</t>
+  </si>
+  <si>
+    <t>{"left":["trochlea humeri", "caput humeri", "capitulum humeri"], "right":["Kürek kemiği ile eklem (omuz eklemi) yapar.", "İç yandaki dirsek kemiği ile eklem yapar.", "Dış yandaki döner kemikle eklem yapar."], "shuffle_right":true}</t>
+  </si>
+  <si>
+    <t>{"pairs":[[0,1], [1,0], [2,2]]}</t>
+  </si>
+  <si>
+    <t>os_ulna_tf_01</t>
+  </si>
+  <si>
+    <t>Dirsek kemiği - T/F</t>
+  </si>
+  <si>
+    <t>antebrachium; ön kol; dirsek kemiği; olecranon; dirsek çıkıntısı; caput ulnae; ulna başı; bilek; bilek eklemi</t>
+  </si>
+  <si>
+    <t>Dirsek kemiğinin humerus ile eklem yapan üst ucuna caput ulnae, bilek eklemine katılan kısma ise olecranon denir.</t>
+  </si>
+  <si>
+    <t>Ders kitabına göre dirsek kemiğinin humerus ile eklem yapan üst ucuna olecranon (dirsek çıkıntısı), bilek eklemine katılan kısma ise caput ulnae (ulna başı) denir.</t>
+  </si>
+  <si>
+    <t>os_radius_tf_01</t>
+  </si>
+  <si>
+    <t>Döner kemik - T/F</t>
+  </si>
+  <si>
+    <t>antebrachium; ön kol; döner kemik; avuç içi</t>
+  </si>
+  <si>
+    <t>Öne uzatılan elin avuç içi aşağı çevrildiğinde os radius, ulnanın üzerine
+doğru döner.</t>
+  </si>
+  <si>
+    <t>os_radius_tf_02</t>
+  </si>
+  <si>
+    <t>Ön kol bölgesi - T/F</t>
+  </si>
+  <si>
+    <t>antebrachium; ön kol; döner kemik; paralel; dirsek kemiği</t>
+  </si>
+  <si>
+    <t>Anatomik duruşta os ulna ile os radius paraleldir.</t>
+  </si>
+  <si>
+    <t>manus_matching_01</t>
+  </si>
+  <si>
+    <t>El bölgesi kemikleri isimleri</t>
+  </si>
+  <si>
+    <t>manus; el; bilek; el bileği; tarak; el tarak; parmak; el parmak</t>
+  </si>
+  <si>
+    <t>El bölgesinde bulunan kemikleri açıklamaları ile eşleştiriniz.</t>
+  </si>
+  <si>
+    <t>{"left":["Ossa Carpi", "Ossa Metacarpi", "Ossa Digitorum Manus (Phalanges)"], "right":["4’erli iki sıra halinde 8 kısa kemik bulunur.", "Avuç içi ve el sırtının iskeletini oluşturan 5 uzun kemiktir.", "Beş parmakta toplam 14 kemik bulunur."], "shuffle_right":true}</t>
+  </si>
+  <si>
+    <t>{"pairs":[[0,0], [1,1], [2,2]]}</t>
+  </si>
+  <si>
+    <t>Ders kitabı s.63</t>
+  </si>
+  <si>
+    <t>ossa_digitorum_manus_tf_01</t>
+  </si>
+  <si>
+    <t>Parmak kemikleri - T/F</t>
+  </si>
+  <si>
+    <t>manus; el; parmak; el parmak; sayı</t>
+  </si>
+  <si>
+    <t>Parmak kemiklerinin sayısı başparmakta 2 diğer parmaklarda 3’er tanedir.</t>
+  </si>
+  <si>
+    <t>lower_extremity_tf_01</t>
+  </si>
+  <si>
+    <t>Alt Ekstremite - T/F</t>
+  </si>
+  <si>
+    <t>Lower_Extremity</t>
+  </si>
+  <si>
+    <t>alt ekstremite; kemik; kemik sayısı</t>
+  </si>
+  <si>
+    <t>Alt ekstremitede tek tarafta toplam 31 kemik bulunur.</t>
+  </si>
+  <si>
+    <t>Ders kitabı s.65</t>
+  </si>
+  <si>
+    <t>os_coxa_tf_01</t>
+  </si>
+  <si>
+    <t>Os Coxa- T/F</t>
+  </si>
+  <si>
+    <t>alt ekstremite; kalça; pelvis; çift; düzensiz; acetabulum</t>
+  </si>
+  <si>
+    <t>Os coxa üç ayrı kemiğin birleşmesiyle oluşur.</t>
+  </si>
+  <si>
+    <t>Ders kitabı s.64</t>
+  </si>
+  <si>
+    <t>os_fibula_tf_01</t>
+  </si>
+  <si>
+    <t>Os Fibula- T/F</t>
+  </si>
+  <si>
+    <t>alt ekstremite; baldır; dış; ince; fibula</t>
+  </si>
+  <si>
+    <t>Os fibula diz ekleminin oluşumuna doğrudan katılır.</t>
+  </si>
+  <si>
+    <t>Ders kitabına göre, fibula diz ekleminin oluşumuna doğrudan katılmaz.</t>
+  </si>
+  <si>
+    <t>os_patella_tf_01</t>
+  </si>
+  <si>
+    <t>Os Patella- T/F</t>
+  </si>
+  <si>
+    <t>alt ekstremite; uyluk; diz; susamsı; patella</t>
+  </si>
+  <si>
+    <t>Patella femur ile eklem yaparak diz eklemine katılır.</t>
+  </si>
+  <si>
+    <t>os_talus_tf_01</t>
+  </si>
+  <si>
+    <t>Os Talus - T/F</t>
+  </si>
+  <si>
+    <t>alt ekstremite; ayak bileği; kalkaneus</t>
+  </si>
+  <si>
+    <t>Ayak bileğindeki en büyük kemik os talus’tur.</t>
+  </si>
+  <si>
+    <t>Ders kitabına göre, ayak bileğindeki en büyük kemik os calcaneus’tur.</t>
+  </si>
+  <si>
+    <t>os_coxa_tf_02</t>
+  </si>
+  <si>
+    <t>Os Coxa- T/F (2)</t>
+  </si>
+  <si>
+    <t>Os coxa, doğumdan itibaren tek kemik hâlindedir ve gelişim sürecinde üç parçaya ayrılır.</t>
+  </si>
+  <si>
+    <t>Ders kitabına göre, os coxa başlangıçta üç ayrı kemikten (ilium, pubis, ischii) oluşur ve 15-16 yaşlarında kaynaşarak tek kemik hâline gelir.</t>
+  </si>
+  <si>
+    <t>os_fibula_tf_02</t>
+  </si>
+  <si>
+    <t>Os Fibula- T/F (2)</t>
+  </si>
+  <si>
+    <t>Fibula kemiği diz ekleminin oluşumuna katılmaz ancak tibia ile eklem yapar.</t>
+  </si>
+  <si>
+    <t>ossa_tarsi_tf_01</t>
+  </si>
+  <si>
+    <t>Ossa Tarsi - T/F</t>
+  </si>
+  <si>
+    <t>alt ekstremite; ayak; ayak bileği; kısa; tarsal</t>
+  </si>
+  <si>
+    <t>Her iki ayakta toplam 14 adet ossa tarsi bulunur.</t>
+  </si>
+  <si>
+    <t>ossa_digitorum_pedis_tf01</t>
+  </si>
+  <si>
+    <t>Ossa Digitorum Pedis - T/F</t>
+  </si>
+  <si>
+    <t>alt ekstremite; ayak ; ayak kemikleri; falanks; kemik sayısı</t>
+  </si>
+  <si>
+    <t>Her iki alt ekstremitede bulunan toplam 62 kemiğin 28 tanesini ossa digitorum pedis oluşturur.</t>
+  </si>
+  <si>
+    <t>lower_extremity_tf_02</t>
+  </si>
+  <si>
+    <t>alt ekstremite; kemik sayısı; metatars; falanks; analiz</t>
+  </si>
+  <si>
+    <t>Tek alt ekstremitede bulunan ossa metatarsi ve ossa digitorum pedis kemiklerinin toplam sayısı, ossa tarsi kemiklerinin sayısından fazladır.</t>
+  </si>
+  <si>
+    <t>Ders kitabına göre, tek ayakta 5 ossa metatarsi ve 14 ossa digitorum pedis olmak üzere toplam 19 kemik bulunur. Ossa tarsi sayısı ise 7'dir. 19, 7'den fazladır.</t>
+  </si>
+  <si>
+    <t>os_coxa_mcq_01</t>
+  </si>
+  <si>
+    <t>Os Coxa - Bileşenleri</t>
+  </si>
+  <si>
+    <t>Aşağıdakilerden hangisi kalça kemiğini (Os coxa) oluşturan kemiklerden biri değildir?</t>
+  </si>
+  <si>
+    <t>{"options":["Os ilium","Os pubis","Os ischii","Os femur"]}</t>
+  </si>
+  <si>
+    <t>Ders kitabına göre, os femur kalça kemiğini oluşturan kemikler arasında yer almaz.</t>
+  </si>
+  <si>
+    <t>caput_femoris_mcq_01</t>
+  </si>
+  <si>
+    <t>Femur Başı - Eklem Yüzeyi</t>
+  </si>
+  <si>
+    <t>alt ekstremite; ;kalça; femur; kalça eklemi</t>
+  </si>
+  <si>
+    <t>Femur başı (caput femoris) hangi yapı ile eklem yapar?</t>
+  </si>
+  <si>
+    <t>{"options":["Tibia","Acetabulum","Os sacrum","Os pubis"]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"correct_index":1}
+</t>
+  </si>
+  <si>
+    <t>Ders kitabına göre, femur başı acetabulum ile eklem yapar.</t>
+  </si>
+  <si>
+    <t>tibia_mcq_01</t>
+  </si>
+  <si>
+    <t>Tibia - Üst Eklem İlişkisi</t>
+  </si>
+  <si>
+    <t>alt ekstremite; baldır; iç; uzun; tibia</t>
+  </si>
+  <si>
+    <t>Tibia'nın üst kısmı hangi kemik ile eklem yapar?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"options":["Patella","Fibula","Femur","Talus"]}
+</t>
+  </si>
+  <si>
+    <t>Ders kitabına göre, tibia üstte femur ile eklem yapar.</t>
+  </si>
+  <si>
+    <t>ossa_metatarsi_mcq_01</t>
+  </si>
+  <si>
+    <t>Ossa Metatarsi - Kemik Sayısı</t>
+  </si>
+  <si>
+    <t>alt ekstremite; ayak; tarak; uzun; metatarsal</t>
+  </si>
+  <si>
+    <t>Tek ayakta kaç adet ossa metatarsi bulunur?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"options":["5","7","10","14"]}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"correct_index":0}
+</t>
+  </si>
+  <si>
+    <t>Ders kitabına göre, tek ayakta 5 metatars kemiği bulunur.</t>
+  </si>
+  <si>
+    <t>ossa_digitorum_pedis_mcq_01</t>
+  </si>
+  <si>
+    <t>Ayak Parmak Kemik Sayısı - Toplam Hesaplama</t>
+  </si>
+  <si>
+    <t>alt ekstremite; ayak ; ayak kemikleri; falanks; kemik sayısı; analiz sorusu</t>
+  </si>
+  <si>
+    <t>Tek ayakta bulunan falanks (ossa digitorum pedis) kemiklerinin toplam sayısı ve dağılımı hangi seçenekte doğru verilmiştir?</t>
+  </si>
+  <si>
+    <t>{"options":["Toplam 14 kemik; başparmak 2, diğer parmaklar 3'er kemikten oluşur", "Toplam 15 kemik; tüm parmaklar 3'er kemikten oluşur", "Toplam 12 kemik; başparmak 2, diğer parmaklar 2'şer kemikten oluşur", "Toplam 16 kemik; başparmak 3, diğer parmaklar 3'er kemikten oluşur"]}</t>
+  </si>
+  <si>
+    <t>Ders kitabına göre, tek ayakta toplam 14 falanks kemiği bulunur. Başparmak 2 kemikten, diğer dört parmak ise 3'er kemikten oluşur (2 + 12 = 14).</t>
+  </si>
+  <si>
+    <t>os_talus_mcq_01</t>
+  </si>
+  <si>
+    <t>Talus - Eklem İlişkisi</t>
+  </si>
+  <si>
+    <t>Talus kemiği aşağıdaki kemiklerden hangileri ile doğrudan eklem yapar?</t>
+  </si>
+  <si>
+    <t>{"options":["Tibia ve fibula", "Tibia ve femur", "Fibula ve calcaneus", "Femur ve tibia"]}</t>
+  </si>
+  <si>
+    <t>Ders kitabına göre, talus tibia ve fibula ile eklem yaparak ayak bileği eklemini oluşturur.</t>
+  </si>
+  <si>
+    <t>os_fibula_mcq_01</t>
+  </si>
+  <si>
+    <t>Os Fibula Özellik</t>
+  </si>
+  <si>
+    <t>Aşağıdakilerden hangisi fibula kemiğinin özelliklerinden biridir?</t>
+  </si>
+  <si>
+    <t>{"options":["Diz ekleminin oluşumuna doğrudan katılır", "Vücudun en uzun kemiğidir", "Tibia'ya destek sağlar ve diz eklemine katılmaz", "Femur başı ile eklem yapar"]}</t>
+  </si>
+  <si>
+    <t>Ders kitabına göre, fibula tibia'ya destek sağlar; diz eklemine katılmaz.</t>
+  </si>
+  <si>
+    <t>syndesmosis_tf_01</t>
+  </si>
+  <si>
+    <t>Syndesmosis -T/F</t>
+  </si>
+  <si>
+    <t>Joints</t>
+  </si>
+  <si>
+    <t>eklem; oynamaz; fibroz; syndesmosis</t>
+  </si>
+  <si>
+    <t>Syndesmosis eklemlerde kemik yüzleri arasında hiyalin kıkırdak bulunur.</t>
+  </si>
+  <si>
+    <t>Ders kitabına göre, sindesmoz fibröz (lifli) bağ dokusu ile bağlanmış oynayamaz eklem tipidir; hiyalin kıkırdak bulunmaz.</t>
+  </si>
+  <si>
+    <t>Ders kitabı s.67</t>
+  </si>
+  <si>
+    <t>sinovial_joint_tf_01</t>
+  </si>
+  <si>
+    <t>Sinovyal  Zar - T/F</t>
+  </si>
+  <si>
+    <t>eklem; sinovyal eklem; sinovyal sıvı; eklem kapsülü</t>
+  </si>
+  <si>
+    <t>Sinovyal zar, eklem boşluğuna sinovyal sıvı salgılayarak eklem yüzlerinin beslenmesini ve sürtünmeye karşı korunmasını sağlar.</t>
+  </si>
+  <si>
+    <t>Ders kitabı s.68</t>
+  </si>
+  <si>
+    <t>oynar_eklem_hareket_tf_01</t>
+  </si>
+  <si>
+    <t>Pronasyon Hareketi - T/F</t>
+  </si>
+  <si>
+    <t>eklem; eklem hareketleri; pronasyon; rotasyon; ön kol</t>
+  </si>
+  <si>
+    <t>Pronasyon, eklemin dışa doğru döndürülmesi olup lateral rotasyon ile aynı hareketi ifade eder.</t>
+  </si>
+  <si>
+    <t>Ders kitabına göre, pronasyon radiusun ulna üzerine dönmesidir; lateral rotasyon ise eklemin dışa doğru döndürülmesidir. Aynı hareket değildir.</t>
+  </si>
+  <si>
+    <t>Ders kitabı s.69</t>
+  </si>
+  <si>
+    <t>oynar_eklem_hareket_tf_02</t>
+  </si>
+  <si>
+    <t>Tek Eksenli Eklem Hareketi - T/F</t>
+  </si>
+  <si>
+    <t>eklem; tek eksenli eklem; hareket ekseni</t>
+  </si>
+  <si>
+    <t>Tek eksenli eklemler yalnızca bir eksen etrafında hareket yapabilir ve bu eklemler hem fleksiyon-ekstansiyon hem de rotasyon hareketlerini birlikte gerçekleştirebilir.</t>
+  </si>
+  <si>
+    <t>Ders kitabına göre, tek eksenli eklemler yalnızca bir eksen etrafında hareket yapar; birden fazla hareket tipini birlikte yapamaz.</t>
+  </si>
+  <si>
+    <t>Ders kitabı s.70</t>
+  </si>
+  <si>
+    <t>art_genus_tf_01</t>
+  </si>
+  <si>
+    <t>Diz Eklemine Katılan Kemikler - T/F</t>
+  </si>
+  <si>
+    <t>eklem; oynar; diz; femur; tibia; patella</t>
+  </si>
+  <si>
+    <t>Diz eklemi femur, tibia, patella ve fibula kemikleri arasında oluşur.</t>
+  </si>
+  <si>
+    <t>Ders kitabına göre, diz eklemi femur, tibia ve patella arasında oluşur; fibula diz eklemine katılmaz.</t>
+  </si>
+  <si>
+    <t>Ders kitabı s.71</t>
+  </si>
+  <si>
+    <t>symphysis_tf_01</t>
+  </si>
+  <si>
+    <t>Symphysis - T/F</t>
+  </si>
+  <si>
+    <t>eklem; yarı oynar; symphysis; fibroz kıkırdak</t>
+  </si>
+  <si>
+    <t>Symphysis tipi yarı oynar eklemlerde eklem yüzleri arasında fibroz kıkırdak yapısında bir disk bulunur.</t>
+  </si>
+  <si>
+    <t>sinovial_joint_tf_02</t>
+  </si>
+  <si>
+    <t>Sinovyal  Eklem- T/F (2)</t>
+  </si>
+  <si>
+    <t>eklem; sinovyal eklem; kapsül; sinovyal zar</t>
+  </si>
+  <si>
+    <t>Sinovyal eklem kapsülü tek katmanlı olup yalnızca fibröz zardan oluşur.</t>
+  </si>
+  <si>
+    <t>Ders kitabına göre, sinovyal eklem kapsülü iki katmandan oluşur: dışta fibröz zar, içte sinovyal zar bulunur.</t>
+  </si>
+  <si>
+    <t>joint_movements_tf_01</t>
+  </si>
+  <si>
+    <t>Çok Eksenli Eklem - T/F</t>
+  </si>
+  <si>
+    <t>eklem; çok eksenli; sirkümdüksiyon; omuz</t>
+  </si>
+  <si>
+    <t>Çok eksenli eklemler yalnızca iki eksen etrafında hareket yapabilir ve sirkümdüksiyon gerçekleştiremez.</t>
+  </si>
+  <si>
+    <t>Ders kitabına göre, çok eksenli eklemler transvers, sagittal ve vertikal eksenlerde hareket yapabilir ve sirkümdüksiyon gerçekleştirebilir.</t>
+  </si>
+  <si>
+    <t>joint_dislocation_tf_01</t>
+  </si>
+  <si>
+    <t>Çıkık - T/F</t>
+  </si>
+  <si>
+    <t>eklem; çıkık; eklem yaralanmaları</t>
+  </si>
+  <si>
+    <t>Çıkık durumunda eklem yüzleri geçici olarak ayrılır ve kemikler kısa sürede anatomik konumlarına döner.</t>
+  </si>
+  <si>
+    <t>Ders kitabına göre, çıkık eklemi oluşturan kemiklerin anatomik pozisyonlarını kaybederek eklem yüzlerinin kalıcı olarak ayrılması durumudur; geçici değildir.</t>
+  </si>
+  <si>
+    <t>joint_sprain_tf_01</t>
+  </si>
+  <si>
+    <t>Burkulma - T/F</t>
+  </si>
+  <si>
+    <t>eklem; burkulma; eklem yaralanmaları</t>
+  </si>
+  <si>
+    <t>Burkulma, eklemi oluşturan kemiklerin anatomik pozisyonlarını kaybetmesi sonucu eklem yüzlerinin kalıcı olarak ayrılmasıdır.</t>
+  </si>
+  <si>
+    <t>ers kitabına göre, burkulma eklemi oluşturan kemiklerin ani olarak anatomik pozisyonlarını kaybederek eklem yüzlerinin geçici olarak ayrılmasıdır; kalıcı değildir</t>
+  </si>
+  <si>
+    <t>fibrous_joint_mcq_01</t>
+  </si>
+  <si>
+    <t>Fibröz - Eklem Türleri</t>
+  </si>
+  <si>
+    <t>eklem; fibröz eklem; sutura; gomphosis; sindesmoz</t>
+  </si>
+  <si>
+    <t>Aşağıdakilerden hangisi fibröz eklem türlerinden biri değildir?</t>
+  </si>
+  <si>
+    <t>{"options":["Sutura", "Gomphosis", "Sindesmoz", "Synchondrosis"]}</t>
+  </si>
+  <si>
+    <t>Ders kitabına göre, synchondrosis yarı oynar (kartilaginöz) eklemdir; fibröz eklem değildir.</t>
+  </si>
+  <si>
+    <t>synovial_joint_mcq_01</t>
+  </si>
+  <si>
+    <t>Sinovyal - Eklem Özellikleri</t>
+  </si>
+  <si>
+    <t>eklem; sinovyal eklem; eklem kapsülü; sinovyal sıvı</t>
+  </si>
+  <si>
+    <t>Sinovyal eklemleri diğer eklem tiplerinden ayıran en önemli özellik aşağıdakilerden hangisidir?</t>
+  </si>
+  <si>
+    <t>{"options":["Kemiklerin doğrudan fibröz bağ ile bağlanması", "Eklem boşluğu ve sinovyal sıvı bulunması", "Eklem yüzleri arasında fibroz kıkırdak bulunması", "Hareket yeteneğinin olmaması"]}</t>
+  </si>
+  <si>
+    <t>Ders kitabına göre, sinovyal eklemleri ayıran temel özellik eklem boşluğu ve sinovyal sıvı bulunmasıdır.</t>
+  </si>
+  <si>
+    <t>joint_movements_mcq_01</t>
+  </si>
+  <si>
+    <t>Eklem Hareketi</t>
+  </si>
+  <si>
+    <t>eklem; eklem hareketleri; fleksiyon; açı değişimi</t>
+  </si>
+  <si>
+    <t>Eklem yüzleri arasındaki açının küçülmesini ifade eden hareket aşağıdakilerden hangisidir?</t>
+  </si>
+  <si>
+    <t>{"options":["Ekstansiyon", "Abdüksiyon", "Fleksiyon", "Rotasyon"]}</t>
+  </si>
+  <si>
+    <t>Ders kitabına göre, eklem yüzleri arasındaki açının azalması fleksiyon olarak adlandırılır.</t>
+  </si>
+  <si>
+    <t>joint_movements_mcq_02</t>
+  </si>
+  <si>
+    <t>Tek Eksenli Eklem Hareketi</t>
+  </si>
+  <si>
+    <t>eklem; tek eksenli; hareket ekseni</t>
+  </si>
+  <si>
+    <t>Tek eksenli bir eklem aşağıdaki hareket kombinasyonlarından hangisini yapabilir?</t>
+  </si>
+  <si>
+    <t>{"options":["Fleksiyon ve ekstansiyon", "Fleksiyon, abdüksiyon ve rotasyon", "Abdüksiyon ve addüksiyon", "Rotasyon ve sirkümdüksiyon"]}</t>
+  </si>
+  <si>
+    <t>Ders kitabına göre, tek eksenli eklemler yalnızca bir eksen etrafında hareket yapar; genellikle fleksiyon ve ekstansiyon gerçekleştirir.</t>
+  </si>
+  <si>
+    <t>joint_movements_mcq_03</t>
+  </si>
+  <si>
+    <t>Pronasyon - Tanımı</t>
+  </si>
+  <si>
+    <t>eklem; eklem hareketleri; pronasyon; ön kol; radius</t>
+  </si>
+  <si>
+    <t>Pronasyon hareketi aşağıdakilerden hangisi ile doğru tanımlanır?</t>
+  </si>
+  <si>
+    <t>{"options":["Radiusun ulna üzerine dönmesi", "Eklemin dışa doğru döndürülmesi", "Ayağın içe doğru döndürülmesi", "Eklem yüzleri arasındaki açının artması"]}</t>
+  </si>
+  <si>
+    <t>Ders kitabına göre, pronasyon radius kemiğinin ulna üzerine dönmesidir.</t>
+  </si>
+  <si>
+    <t>synchondrosis_mcq_01</t>
+  </si>
+  <si>
+    <t>Synchondrosis - Özelliği</t>
+  </si>
+  <si>
+    <t>eklem; yarı oynar; synchondrosis; hiyalin kıkırdak</t>
+  </si>
+  <si>
+    <t>Synchondrosis tipi yarı oynar eklemlerde eklem yüzleri arasında aşağıdakilerden hangisi bulunur?</t>
+  </si>
+  <si>
+    <t>{"options":["Hiyalin kıkırdak", "Fibroz kıkırdak disk", "Sinovyal sıvı", "Eklem boşluğu"]}</t>
+  </si>
+  <si>
+    <t>Ders kitabına göre, synchondrosis tipi yarı oynar eklemlerde eklem yüzleri arasında hiyalin kıkırdak bulunur.</t>
+  </si>
+  <si>
+    <t>joint_movements_mcq_04</t>
+  </si>
+  <si>
+    <t>Sirkümdüksiyon - Hareketi</t>
+  </si>
+  <si>
+    <t>eklem ; eklem hareketleri; sirkümdüksiyon; çok eksenli</t>
+  </si>
+  <si>
+    <t>Sirkümdüksiyon hareketi aşağıdakilerin hangisinin ardışık birleşimiyle oluşur?</t>
+  </si>
+  <si>
+    <t>{"options":["Fleksiyon, abdüksiyon, ekstansiyon ve addüksiyon", "Rotasyon ve inversiyon", "Ekstansiyon ve pronasyon", "Abdüksiyon ve eversiyon"]}</t>
+  </si>
+  <si>
+    <t>Ders kitabına göre, sirkümdüksiyon fleksiyon, abdüksiyon, ekstansiyon ve addüksiyon hareketlerinin dairesel şekilde ardışık tekrarıdır.</t>
+  </si>
+  <si>
+    <t>joint_movements_mcq_05</t>
+  </si>
+  <si>
+    <t>Eksen–Hareket Eşleştirmesi</t>
+  </si>
+  <si>
+    <t>eklem; eklem harketleri; eksen; rotasyon; fleksiyon</t>
+  </si>
+  <si>
+    <t>Aşağıdaki eşleştirmelerden hangisi doğrudur?</t>
+  </si>
+  <si>
+    <t>{"options":["Transvers eksen – Fleksiyon/Ekstansiyon", "Sagittal eksen – Fleksiyon/Ekstansiyon", "Vertikal eksen – Abdüksiyon/Addüksiyon", "Transvers eksen – Rotasyon"]}</t>
+  </si>
+  <si>
+    <t>Ders kitabına göre, transvers eksen etrafında fleksiyon ve ekstansiyon hareketi gerçekleşir.</t>
+  </si>
+  <si>
+    <t>dislocation_sprain_mcq_01</t>
+  </si>
+  <si>
+    <t>Çıkık - Burkulma Karşılaştırması</t>
+  </si>
+  <si>
+    <t>eklem; çıkık; burkulma; yaralanma</t>
+  </si>
+  <si>
+    <t>Aşağıdakilerden hangisi çıkık ile burkulma arasındaki temel farktır?</t>
+  </si>
+  <si>
+    <t>{"options":["Çıkıkta ayrılma kalıcıdır, burkulmada geçicidir", "Burkulmada kemikler kalıcı olarak ayrılır", "Çıkık yalnızca fibröz eklemlerde görülür", "Burkulma sinovyal sıvının azalmasıdır"]}</t>
+  </si>
+  <si>
+    <t>Ders kitabına göre, çıkıkta eklem yüzleri kalıcı olarak ayrılır; burkulmada ayrılma geçicidir.</t>
+  </si>
+  <si>
+    <t>joint_movements_mcq_06</t>
+  </si>
+  <si>
+    <t>Pronasyon–Supinasyon Eksen Analizi</t>
+  </si>
+  <si>
+    <t>eklem ; eklem hareketleri; pronasyon; supinasyon; eksen; rotasyon</t>
+  </si>
+  <si>
+    <t>Pronasyon ve supinasyon hareketleri aşağıdaki eksenlerden hangisi etrafında gerçekleşir?</t>
+  </si>
+  <si>
+    <t>{"options":["Vertikal eksen", "Transvers eksen", "Sagittal eksen", "Belirli bir eksen yoktur"]}</t>
+  </si>
+  <si>
+    <t>Ders kitabına göre, pronasyon ve supinasyon vertikal eksen etrafında gerçekleşen rotasyon hareketleridir.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -409,6 +1457,10 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -425,12 +1477,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1498,6 +2559,2560 @@
         <v>71</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E26" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E27" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E28" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E29" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E30" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E31" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E32" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E33" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E34" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E35" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E36" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E37" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E38" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E39" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E40" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E42" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E44" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="45" ht="15.0" customHeight="1">
+      <c r="A45" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E45" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E46" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E48" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E49" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E50" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E51" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E52" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E53" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E55" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E56" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E57" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E58" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E59" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E60" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E61" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E62" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E63" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E64" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E65" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E66" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E67" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E68" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E69" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E70" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E71" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E72" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E73" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E74" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E75" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E76" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E77" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E78" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E79" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E80" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E81" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E82" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E83" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E84" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="E85" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
